--- a/web/data/Data_Kecelakaan_Padang_Lawas_Utara.xlsx
+++ b/web/data/Data_Kecelakaan_Padang_Lawas_Utara.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_khopipah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_khopipah\web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FF60D-E241-4D53-9888-86BE257921BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E760A99-1582-468C-8C77-FE9D7606CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -40,21 +40,6 @@
     <t>Jumlah Luka Ringan</t>
   </si>
   <si>
-    <t>Kondisi Jalan</t>
-  </si>
-  <si>
-    <t>Cuaca</t>
-  </si>
-  <si>
-    <t>Waktu Kecelakaan</t>
-  </si>
-  <si>
-    <t>Jumlah Kendaraan</t>
-  </si>
-  <si>
-    <t>Kecepatan Rata-rata</t>
-  </si>
-  <si>
     <t>Batang Onang</t>
   </si>
   <si>
@@ -89,33 +74,6 @@
   </si>
   <si>
     <t>Ujung Batu</t>
-  </si>
-  <si>
-    <t>Sedang</t>
-  </si>
-  <si>
-    <t>Buruk</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Hujan</t>
-  </si>
-  <si>
-    <t>Berawan</t>
-  </si>
-  <si>
-    <t>Cerah</t>
-  </si>
-  <si>
-    <t>Pagi</t>
-  </si>
-  <si>
-    <t>Malam</t>
-  </si>
-  <si>
-    <t>Siang</t>
   </si>
 </sst>
 </file>
@@ -484,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="J18" sqref="I18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,14 +456,9 @@
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,25 +477,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>2019</v>
@@ -559,25 +497,10 @@
       <c r="F2" s="2">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2">
-        <v>411</v>
-      </c>
-      <c r="K2" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>2020</v>
@@ -594,25 +517,10 @@
       <c r="F3" s="2">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2">
-        <v>251</v>
-      </c>
-      <c r="K3" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2021</v>
@@ -629,25 +537,10 @@
       <c r="F4" s="2">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2">
-        <v>272</v>
-      </c>
-      <c r="K4" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>2022</v>
@@ -664,25 +557,10 @@
       <c r="F5" s="2">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2">
-        <v>312</v>
-      </c>
-      <c r="K5" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>2023</v>
@@ -699,25 +577,10 @@
       <c r="F6" s="2">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2">
-        <v>207</v>
-      </c>
-      <c r="K6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -734,25 +597,10 @@
       <c r="F7" s="2">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
-        <v>343</v>
-      </c>
-      <c r="K7" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2020</v>
@@ -769,25 +617,10 @@
       <c r="F8" s="2">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="2">
-        <v>193</v>
-      </c>
-      <c r="K8" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>2021</v>
@@ -804,25 +637,10 @@
       <c r="F9" s="2">
         <v>41</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2">
-        <v>223</v>
-      </c>
-      <c r="K9" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>2022</v>
@@ -839,25 +657,10 @@
       <c r="F10" s="2">
         <v>27</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2">
-        <v>499</v>
-      </c>
-      <c r="K10" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>2023</v>
@@ -874,25 +677,10 @@
       <c r="F11" s="2">
         <v>29</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="2">
-        <v>444</v>
-      </c>
-      <c r="K11" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>2019</v>
@@ -909,25 +697,10 @@
       <c r="F12" s="2">
         <v>26</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2">
-        <v>162</v>
-      </c>
-      <c r="K12" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>2020</v>
@@ -944,25 +717,10 @@
       <c r="F13" s="2">
         <v>43</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="2">
-        <v>194</v>
-      </c>
-      <c r="K13" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>2021</v>
@@ -979,25 +737,10 @@
       <c r="F14" s="2">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="2">
-        <v>334</v>
-      </c>
-      <c r="K14" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>2022</v>
@@ -1014,25 +757,10 @@
       <c r="F15" s="2">
         <v>11</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="2">
-        <v>284</v>
-      </c>
-      <c r="K15" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>2023</v>
@@ -1049,25 +777,10 @@
       <c r="F16" s="2">
         <v>47</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="2">
-        <v>171</v>
-      </c>
-      <c r="K16" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
         <v>2019</v>
@@ -1084,25 +797,10 @@
       <c r="F17" s="2">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="2">
-        <v>121</v>
-      </c>
-      <c r="K17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
         <v>2020</v>
@@ -1119,25 +817,10 @@
       <c r="F18" s="2">
         <v>40</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="2">
-        <v>125</v>
-      </c>
-      <c r="K18" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>2021</v>
@@ -1154,25 +837,10 @@
       <c r="F19" s="2">
         <v>14</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="2">
-        <v>207</v>
-      </c>
-      <c r="K19" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
         <v>2022</v>
@@ -1189,25 +857,10 @@
       <c r="F20" s="2">
         <v>39</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2">
-        <v>273</v>
-      </c>
-      <c r="K20" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
         <v>2023</v>
@@ -1224,25 +877,10 @@
       <c r="F21" s="2">
         <v>46</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="2">
-        <v>190</v>
-      </c>
-      <c r="K21" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
         <v>2019</v>
@@ -1259,25 +897,10 @@
       <c r="F22" s="2">
         <v>34</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="2">
-        <v>387</v>
-      </c>
-      <c r="K22" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
         <v>2020</v>
@@ -1294,25 +917,10 @@
       <c r="F23" s="2">
         <v>17</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="2">
-        <v>206</v>
-      </c>
-      <c r="K23" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
         <v>2021</v>
@@ -1329,25 +937,10 @@
       <c r="F24" s="2">
         <v>24</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="2">
-        <v>360</v>
-      </c>
-      <c r="K24" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2">
         <v>2022</v>
@@ -1364,25 +957,10 @@
       <c r="F25" s="2">
         <v>43</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="2">
-        <v>120</v>
-      </c>
-      <c r="K25" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2">
         <v>2023</v>
@@ -1399,25 +977,10 @@
       <c r="F26" s="2">
         <v>21</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="2">
-        <v>179</v>
-      </c>
-      <c r="K26" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
         <v>2019</v>
@@ -1434,25 +997,10 @@
       <c r="F27" s="2">
         <v>41</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="2">
-        <v>299</v>
-      </c>
-      <c r="K27" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
         <v>2020</v>
@@ -1469,25 +1017,10 @@
       <c r="F28" s="2">
         <v>46</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="2">
-        <v>149</v>
-      </c>
-      <c r="K28" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
         <v>2021</v>
@@ -1504,25 +1037,10 @@
       <c r="F29" s="2">
         <v>26</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="2">
-        <v>452</v>
-      </c>
-      <c r="K29" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2">
         <v>2022</v>
@@ -1539,25 +1057,10 @@
       <c r="F30" s="2">
         <v>24</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="2">
-        <v>241</v>
-      </c>
-      <c r="K30" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
         <v>2023</v>
@@ -1574,25 +1077,10 @@
       <c r="F31" s="2">
         <v>28</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="2">
-        <v>436</v>
-      </c>
-      <c r="K31" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2">
         <v>2019</v>
@@ -1609,25 +1097,10 @@
       <c r="F32" s="2">
         <v>26</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="2">
-        <v>245</v>
-      </c>
-      <c r="K32" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2">
         <v>2020</v>
@@ -1644,25 +1117,10 @@
       <c r="F33" s="2">
         <v>13</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="2">
-        <v>187</v>
-      </c>
-      <c r="K33" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
         <v>2021</v>
@@ -1679,25 +1137,10 @@
       <c r="F34" s="2">
         <v>31</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="2">
-        <v>456</v>
-      </c>
-      <c r="K34" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2">
         <v>2022</v>
@@ -1714,25 +1157,10 @@
       <c r="F35" s="2">
         <v>12</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="2">
-        <v>372</v>
-      </c>
-      <c r="K35" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2">
         <v>2023</v>
@@ -1749,25 +1177,10 @@
       <c r="F36" s="2">
         <v>31</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="2">
-        <v>370</v>
-      </c>
-      <c r="K36" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>2019</v>
@@ -1784,25 +1197,10 @@
       <c r="F37" s="2">
         <v>17</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="2">
-        <v>252</v>
-      </c>
-      <c r="K37" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2">
         <v>2020</v>
@@ -1819,25 +1217,10 @@
       <c r="F38" s="2">
         <v>44</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="2">
-        <v>215</v>
-      </c>
-      <c r="K38" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
         <v>2021</v>
@@ -1854,25 +1237,10 @@
       <c r="F39" s="2">
         <v>23</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="2">
-        <v>175</v>
-      </c>
-      <c r="K39" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2">
         <v>2022</v>
@@ -1889,25 +1257,10 @@
       <c r="F40" s="2">
         <v>25</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="2">
-        <v>344</v>
-      </c>
-      <c r="K40" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2">
         <v>2023</v>
@@ -1924,25 +1277,10 @@
       <c r="F41" s="2">
         <v>34</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="2">
-        <v>347</v>
-      </c>
-      <c r="K41" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2">
         <v>2019</v>
@@ -1959,25 +1297,10 @@
       <c r="F42" s="2">
         <v>49</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="2">
-        <v>356</v>
-      </c>
-      <c r="K42" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2">
         <v>2020</v>
@@ -1994,25 +1317,10 @@
       <c r="F43" s="2">
         <v>41</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="2">
-        <v>386</v>
-      </c>
-      <c r="K43" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
         <v>2021</v>
@@ -2029,25 +1337,10 @@
       <c r="F44" s="2">
         <v>35</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="2">
-        <v>100</v>
-      </c>
-      <c r="K44" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2">
         <v>2022</v>
@@ -2064,25 +1357,10 @@
       <c r="F45" s="2">
         <v>42</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="2">
-        <v>215</v>
-      </c>
-      <c r="K45" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
         <v>2023</v>
@@ -2099,25 +1377,10 @@
       <c r="F46" s="2">
         <v>37</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="2">
-        <v>415</v>
-      </c>
-      <c r="K46" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2">
         <v>2019</v>
@@ -2134,25 +1397,10 @@
       <c r="F47" s="2">
         <v>45</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="2">
-        <v>208</v>
-      </c>
-      <c r="K47" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2">
         <v>2020</v>
@@ -2169,25 +1417,10 @@
       <c r="F48" s="2">
         <v>39</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="2">
-        <v>177</v>
-      </c>
-      <c r="K48" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2">
         <v>2021</v>
@@ -2204,25 +1437,10 @@
       <c r="F49" s="2">
         <v>32</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="2">
-        <v>288</v>
-      </c>
-      <c r="K49" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2">
         <v>2022</v>
@@ -2239,25 +1457,10 @@
       <c r="F50" s="2">
         <v>26</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="2">
-        <v>235</v>
-      </c>
-      <c r="K50" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2">
         <v>2023</v>
@@ -2274,25 +1477,10 @@
       <c r="F51" s="2">
         <v>46</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="2">
-        <v>470</v>
-      </c>
-      <c r="K51" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2">
         <v>2019</v>
@@ -2309,25 +1497,10 @@
       <c r="F52" s="2">
         <v>42</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="2">
-        <v>234</v>
-      </c>
-      <c r="K52" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2">
         <v>2020</v>
@@ -2344,25 +1517,10 @@
       <c r="F53" s="2">
         <v>42</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" s="2">
-        <v>316</v>
-      </c>
-      <c r="K53" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2">
         <v>2021</v>
@@ -2379,25 +1537,10 @@
       <c r="F54" s="2">
         <v>38</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="2">
-        <v>217</v>
-      </c>
-      <c r="K54" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B55" s="2">
         <v>2022</v>
@@ -2414,25 +1557,10 @@
       <c r="F55" s="2">
         <v>22</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="2">
-        <v>391</v>
-      </c>
-      <c r="K55" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B56" s="2">
         <v>2023</v>
@@ -2449,25 +1577,10 @@
       <c r="F56" s="2">
         <v>14</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="2">
-        <v>148</v>
-      </c>
-      <c r="K56" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2">
         <v>2019</v>
@@ -2484,25 +1597,10 @@
       <c r="F57" s="2">
         <v>10</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" s="2">
-        <v>142</v>
-      </c>
-      <c r="K57" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2">
         <v>2020</v>
@@ -2519,25 +1617,10 @@
       <c r="F58" s="2">
         <v>33</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="2">
-        <v>484</v>
-      </c>
-      <c r="K58" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B59" s="2">
         <v>2021</v>
@@ -2554,25 +1637,10 @@
       <c r="F59" s="2">
         <v>46</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="2">
-        <v>348</v>
-      </c>
-      <c r="K59" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2">
         <v>2022</v>
@@ -2589,25 +1657,10 @@
       <c r="F60" s="2">
         <v>25</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="2">
-        <v>484</v>
-      </c>
-      <c r="K60" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2">
         <v>2023</v>
@@ -2624,24 +1677,9 @@
       <c r="F61" s="2">
         <v>20</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="2">
-        <v>321</v>
-      </c>
-      <c r="K61" s="2">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K61">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
     <sortCondition ref="A1:A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/data/Data_Kecelakaan_Padang_Lawas_Utara.xlsx
+++ b/web/data/Data_Kecelakaan_Padang_Lawas_Utara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_khopipah\web\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\TGA KHOPIPAH\Purity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E760A99-1582-468C-8C77-FE9D7606CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{214E7319-DEC4-4E60-A109-3F28482C0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Halongonan</t>
   </si>
   <si>
-    <t>Halongonan Timur</t>
-  </si>
-  <si>
     <t>Hulu Sihapas</t>
   </si>
   <si>
@@ -64,16 +61,10 @@
     <t>Padang Bolak Julu</t>
   </si>
   <si>
-    <t>Padang Bolak Tenggara</t>
-  </si>
-  <si>
     <t>Portibi</t>
   </si>
   <si>
     <t>Simangambat</t>
-  </si>
-  <si>
-    <t>Ujung Batu</t>
   </si>
 </sst>
 </file>
@@ -442,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="I18:J18"/>
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,16 +877,16 @@
         <v>2019</v>
       </c>
       <c r="C22" s="2">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,16 +897,16 @@
         <v>2020</v>
       </c>
       <c r="C23" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,16 +917,16 @@
         <v>2021</v>
       </c>
       <c r="C24" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,16 +937,16 @@
         <v>2022</v>
       </c>
       <c r="C25" s="2">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,16 +957,16 @@
         <v>2023</v>
       </c>
       <c r="C26" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,16 +977,16 @@
         <v>2019</v>
       </c>
       <c r="C27" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,13 +1000,13 @@
         <v>90</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,16 +1017,16 @@
         <v>2021</v>
       </c>
       <c r="C29" s="2">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,16 +1037,16 @@
         <v>2022</v>
       </c>
       <c r="C30" s="2">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,16 +1057,16 @@
         <v>2023</v>
       </c>
       <c r="C31" s="2">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,16 +1077,16 @@
         <v>2019</v>
       </c>
       <c r="C32" s="2">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,16 +1097,16 @@
         <v>2020</v>
       </c>
       <c r="C33" s="2">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,16 +1117,16 @@
         <v>2021</v>
       </c>
       <c r="C34" s="2">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,16 +1137,16 @@
         <v>2022</v>
       </c>
       <c r="C35" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,16 +1157,16 @@
         <v>2023</v>
       </c>
       <c r="C36" s="2">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="D36" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,16 +1177,16 @@
         <v>2019</v>
       </c>
       <c r="C37" s="2">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D37" s="2">
         <v>8</v>
       </c>
       <c r="E37" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,16 +1197,16 @@
         <v>2020</v>
       </c>
       <c r="C38" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
         <v>9</v>
       </c>
-      <c r="E38" s="2">
-        <v>17</v>
-      </c>
       <c r="F38" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,16 +1217,16 @@
         <v>2021</v>
       </c>
       <c r="C39" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,16 +1237,16 @@
         <v>2022</v>
       </c>
       <c r="C40" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,16 +1257,16 @@
         <v>2023</v>
       </c>
       <c r="C41" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,16 +1277,16 @@
         <v>2019</v>
       </c>
       <c r="C42" s="2">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E42" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,16 +1297,16 @@
         <v>2020</v>
       </c>
       <c r="C43" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,16 +1317,16 @@
         <v>2021</v>
       </c>
       <c r="C44" s="2">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,16 +1337,16 @@
         <v>2022</v>
       </c>
       <c r="C45" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="D45" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,316 +1357,16 @@
         <v>2023</v>
       </c>
       <c r="C46" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C47" s="2">
-        <v>153</v>
-      </c>
-      <c r="D47" s="2">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C48" s="2">
-        <v>182</v>
-      </c>
-      <c r="D48" s="2">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="2">
-        <v>137</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2">
-        <v>13</v>
-      </c>
-      <c r="F49" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C50" s="2">
-        <v>69</v>
-      </c>
-      <c r="D50" s="2">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2">
-        <v>7</v>
-      </c>
-      <c r="F50" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C51" s="2">
-        <v>99</v>
-      </c>
-      <c r="D51" s="2">
-        <v>5</v>
-      </c>
-      <c r="E51" s="2">
-        <v>16</v>
-      </c>
-      <c r="F51" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C52" s="2">
-        <v>55</v>
-      </c>
-      <c r="D52" s="2">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2">
-        <v>16</v>
-      </c>
-      <c r="F52" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="2">
-        <v>80</v>
-      </c>
-      <c r="D53" s="2">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C54" s="2">
-        <v>55</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
         <v>14</v>
-      </c>
-      <c r="F54" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C55" s="2">
-        <v>176</v>
-      </c>
-      <c r="D55" s="2">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2">
-        <v>3</v>
-      </c>
-      <c r="F55" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C56" s="2">
-        <v>169</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
-        <v>7</v>
-      </c>
-      <c r="F56" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C57" s="2">
-        <v>70</v>
-      </c>
-      <c r="D57" s="2">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="2">
-        <v>182</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C59" s="2">
-        <v>76</v>
-      </c>
-      <c r="D59" s="2">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2">
-        <v>14</v>
-      </c>
-      <c r="F59" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C60" s="2">
-        <v>90</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C61" s="2">
-        <v>102</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2">
-        <v>15</v>
-      </c>
-      <c r="F61" s="2">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
